--- a/BaseDeDatos1.xlsx
+++ b/BaseDeDatos1.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.28.40.28\cecip-analisis\PT Reyes\UNIVERSIDAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AA3288F-BBBC-CA46-AB9B-75ECFE624B46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -122,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -480,20 +489,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="25.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.15234375" customWidth="1"/>
+    <col min="10" max="10" width="14.66015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
@@ -503,7 +512,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -523,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -543,7 +552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -563,7 +572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -583,7 +592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -603,7 +612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -623,7 +632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -643,7 +652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -663,7 +672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -683,7 +692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -703,7 +712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -723,7 +732,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H16" s="4"/>
     </row>
   </sheetData>
